--- a/biology/Médecine/Hôpital_universitaire_de_la_Charité_de_Berlin/Hôpital_universitaire_de_la_Charité_de_Berlin.xlsx
+++ b/biology/Médecine/Hôpital_universitaire_de_la_Charité_de_Berlin/Hôpital_universitaire_de_la_Charité_de_Berlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_de_la_Charit%C3%A9_de_Berlin</t>
+          <t>Hôpital_universitaire_de_la_Charité_de_Berlin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital universitaire de la Charité de Berlin (en allemand : Charité – Universitätsmedizin Berlin), fondé en 1710 comme maison de santé pour les malades de la peste, est l'hôpital le plus ancien de Berlin et, avec plus de 3 000 lits, l'un des premiers centres hospitaliers universitaires d'Europe. Appelé hôpital universitaire après la création de l'université de Berlin en 1810, les quatre campus abritent aujourd'hui les facultés de médecine de l'université Humboldt et de l'université libre de Berlin.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_de_la_Charit%C3%A9_de_Berlin</t>
+          <t>Hôpital_universitaire_de_la_Charité_de_Berlin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 14 novembre 1709, Frédéric Ier, roi de Prusse adopte un règlement ordonnant la construction d'une maison de quarantaine en dehors des murs de Berlin pour les malades de la peste. Durant la Grande Guerre du Nord, la maladie s'était répandue en Prusse-orientale et menaçait également la Marche de Brandebourg. L'institution fut fondée le 13 mai 1710 et les travaux pouvaient commencer.
 Néanmoins, la ville est restée épargnée par cette épidémie. Les années suivantes, l'infirmerie a servi d'hôpital militaire et d'hospice. Le 9 janvier 1727, le « Roi-Sergent » Frédéric-Guillaume Ier décrète que le bâtiment porterait le nom français d'« Hôpital de la Charité ». Des nouveaux bâtiments d'approvisionnement sont réalisés sur le terrain ; en 1713 déjà, un théâtre anatomique est inauguré, devenant plus tard un centre de formation des médecins militaires. Le 2 août 1795, la Pépinière, deuxième établissement du type « école de chirurgie », est fondée à proximité. Rudolf Virchow et Hermann von Helmholtz sont boursiers de cette institution.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_de_la_Charit%C3%A9_de_Berlin</t>
+          <t>Hôpital_universitaire_de_la_Charité_de_Berlin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Sites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le campus historique de la Charité (CCM) est situé dans le quartier de Mitte, sur la rive septentrionale de la Sprée. D'autres sites sont localisés à Wedding (campus Virchow Klinikum, CVK), Lichterfelde (campus Benjamin Franklin, CBF) et Buch (campus Berlin-Buch, CBB).
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_de_la_Charit%C3%A9_de_Berlin</t>
+          <t>Hôpital_universitaire_de_la_Charité_de_Berlin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Coopérations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Centre de protonthérapie avec le Helmholtz-Zentrum Berlin für Materialien und Energie – Allemagne
 À travers le réseau Erasmus avec des universités dans la plupart des pays européens
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_de_la_Charit%C3%A9_de_Berlin</t>
+          <t>Hôpital_universitaire_de_la_Charité_de_Berlin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,9 +646,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Filmographie
-Télévision
-Charité (2017-2021)</t>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Charité (2017-2021)</t>
         </is>
       </c>
     </row>
@@ -640,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_de_la_Charit%C3%A9_de_Berlin</t>
+          <t>Hôpital_universitaire_de_la_Charité_de_Berlin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -658,7 +684,9 @@
           <t>Personnalités liées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Caspar Friedrich Wolff (1734–1794), physiologiste et l’un des fondateurs de l’embryologie ;
 Carl August Wilhelm Berends (1759-1826), médecin ;
